--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.10573052631686</v>
+        <v>5.256564333333333</v>
       </c>
       <c r="H2">
-        <v>1.10573052631686</v>
+        <v>15.769693</v>
       </c>
       <c r="I2">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="J2">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>81.5986952298079</v>
+        <v>122.328922</v>
       </c>
       <c r="N2">
-        <v>81.5986952298079</v>
+        <v>366.986766</v>
       </c>
       <c r="O2">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518612</v>
       </c>
       <c r="P2">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518613</v>
       </c>
       <c r="Q2">
-        <v>90.22616822322455</v>
+        <v>643.0298483203153</v>
       </c>
       <c r="R2">
-        <v>90.22616822322455</v>
+        <v>5787.268634882838</v>
       </c>
       <c r="S2">
-        <v>0.0007786655477079107</v>
+        <v>0.003666671158612747</v>
       </c>
       <c r="T2">
-        <v>0.0007786655477079107</v>
+        <v>0.003666671158612747</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.10573052631686</v>
+        <v>5.256564333333333</v>
       </c>
       <c r="H3">
-        <v>1.10573052631686</v>
+        <v>15.769693</v>
       </c>
       <c r="I3">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="J3">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.251722615305948</v>
+        <v>0.3863573333333334</v>
       </c>
       <c r="N3">
-        <v>0.251722615305948</v>
+        <v>1.159072</v>
       </c>
       <c r="O3">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="P3">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="Q3">
-        <v>0.2783373799081024</v>
+        <v>2.030912178321778</v>
       </c>
       <c r="R3">
-        <v>0.2783373799081024</v>
+        <v>18.278209604896</v>
       </c>
       <c r="S3">
-        <v>2.402093900713162E-06</v>
+        <v>1.158062433552603E-05</v>
       </c>
       <c r="T3">
-        <v>2.402093900713162E-06</v>
+        <v>1.158062433552602E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.10573052631686</v>
+        <v>5.256564333333333</v>
       </c>
       <c r="H4">
-        <v>1.10573052631686</v>
+        <v>15.769693</v>
       </c>
       <c r="I4">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="J4">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.20162007096986</v>
+        <v>2.322294</v>
       </c>
       <c r="N4">
-        <v>2.20162007096986</v>
+        <v>6.966882000000001</v>
       </c>
       <c r="O4">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="P4">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="Q4">
-        <v>2.434398519823266</v>
+        <v>12.207287811914</v>
       </c>
       <c r="R4">
-        <v>2.434398519823266</v>
+        <v>109.865590307226</v>
       </c>
       <c r="S4">
-        <v>2.100922929684584E-05</v>
+        <v>6.960813757207338E-05</v>
       </c>
       <c r="T4">
-        <v>2.100922929684584E-05</v>
+        <v>6.960813757207338E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1308.15334255235</v>
+        <v>1312.703450666667</v>
       </c>
       <c r="H5">
-        <v>1308.15334255235</v>
+        <v>3938.110352</v>
       </c>
       <c r="I5">
-        <v>0.9489107107804025</v>
+        <v>0.93593996730609</v>
       </c>
       <c r="J5">
-        <v>0.9489107107804025</v>
+        <v>0.9359399673060897</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>81.5986952298079</v>
+        <v>122.328922</v>
       </c>
       <c r="N5">
-        <v>81.5986952298079</v>
+        <v>366.986766</v>
       </c>
       <c r="O5">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518612</v>
       </c>
       <c r="P5">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518613</v>
       </c>
       <c r="Q5">
-        <v>106743.6059127837</v>
+        <v>160581.5980257335</v>
       </c>
       <c r="R5">
-        <v>106743.6059127837</v>
+        <v>1445234.382231602</v>
       </c>
       <c r="S5">
-        <v>0.921213545905636</v>
+        <v>0.9156649813736193</v>
       </c>
       <c r="T5">
-        <v>0.921213545905636</v>
+        <v>0.9156649813736192</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1308.15334255235</v>
+        <v>1312.703450666667</v>
       </c>
       <c r="H6">
-        <v>1308.15334255235</v>
+        <v>3938.110352</v>
       </c>
       <c r="I6">
-        <v>0.9489107107804025</v>
+        <v>0.93593996730609</v>
       </c>
       <c r="J6">
-        <v>0.9489107107804025</v>
+        <v>0.9359399673060897</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.251722615305948</v>
+        <v>0.3863573333333334</v>
       </c>
       <c r="N6">
-        <v>0.251722615305948</v>
+        <v>1.159072</v>
       </c>
       <c r="O6">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="P6">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="Q6">
-        <v>329.2917806084953</v>
+        <v>507.1726046570383</v>
       </c>
       <c r="R6">
-        <v>329.2917806084953</v>
+        <v>4564.553441913344</v>
       </c>
       <c r="S6">
-        <v>0.002841838124709665</v>
+        <v>0.002891988866134437</v>
       </c>
       <c r="T6">
-        <v>0.002841838124709665</v>
+        <v>0.002891988866134436</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1308.15334255235</v>
+        <v>1312.703450666667</v>
       </c>
       <c r="H7">
-        <v>1308.15334255235</v>
+        <v>3938.110352</v>
       </c>
       <c r="I7">
-        <v>0.9489107107804025</v>
+        <v>0.93593996730609</v>
       </c>
       <c r="J7">
-        <v>0.9489107107804025</v>
+        <v>0.9359399673060897</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.20162007096986</v>
+        <v>2.322294</v>
       </c>
       <c r="N7">
-        <v>2.20162007096986</v>
+        <v>6.966882000000001</v>
       </c>
       <c r="O7">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="P7">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="Q7">
-        <v>2880.056654869564</v>
+        <v>3048.483347262496</v>
       </c>
       <c r="R7">
-        <v>2880.056654869564</v>
+        <v>27436.35012536247</v>
       </c>
       <c r="S7">
-        <v>0.02485532675005663</v>
+        <v>0.01738299706633619</v>
       </c>
       <c r="T7">
-        <v>0.02485532675005663</v>
+        <v>0.01738299706633618</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>69.3251579671598</v>
+        <v>84.59089266666666</v>
       </c>
       <c r="H8">
-        <v>69.3251579671598</v>
+        <v>253.772678</v>
       </c>
       <c r="I8">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338979</v>
       </c>
       <c r="J8">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338978</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>81.5986952298079</v>
+        <v>122.328922</v>
       </c>
       <c r="N8">
-        <v>81.5986952298079</v>
+        <v>366.986766</v>
       </c>
       <c r="O8">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518612</v>
       </c>
       <c r="P8">
-        <v>0.9708116216203443</v>
+        <v>0.9783373008518613</v>
       </c>
       <c r="Q8">
-        <v>5656.842436720562</v>
+        <v>10347.91271093104</v>
       </c>
       <c r="R8">
-        <v>5656.842436720562</v>
+        <v>93131.21439837934</v>
       </c>
       <c r="S8">
-        <v>0.0488194101670003</v>
+        <v>0.05900564831962928</v>
       </c>
       <c r="T8">
-        <v>0.0488194101670003</v>
+        <v>0.05900564831962928</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>69.3251579671598</v>
+        <v>84.59089266666666</v>
       </c>
       <c r="H9">
-        <v>69.3251579671598</v>
+        <v>253.772678</v>
       </c>
       <c r="I9">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338979</v>
       </c>
       <c r="J9">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338978</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.251722615305948</v>
+        <v>0.3863573333333334</v>
       </c>
       <c r="N9">
-        <v>0.251722615305948</v>
+        <v>1.159072</v>
       </c>
       <c r="O9">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="P9">
-        <v>0.002994842499324812</v>
+        <v>0.003089929874945324</v>
       </c>
       <c r="Q9">
-        <v>17.45071006999144</v>
+        <v>32.68231171497956</v>
       </c>
       <c r="R9">
-        <v>17.45071006999144</v>
+        <v>294.140805434816</v>
       </c>
       <c r="S9">
-        <v>0.0001506022807144344</v>
+        <v>0.0001863603844753611</v>
       </c>
       <c r="T9">
-        <v>0.0001506022807144344</v>
+        <v>0.000186360384475361</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>69.3251579671598</v>
+        <v>84.59089266666666</v>
       </c>
       <c r="H10">
-        <v>69.3251579671598</v>
+        <v>253.772678</v>
       </c>
       <c r="I10">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338979</v>
       </c>
       <c r="J10">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338978</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.20162007096986</v>
+        <v>2.322294</v>
       </c>
       <c r="N10">
-        <v>2.20162007096986</v>
+        <v>6.966882000000001</v>
       </c>
       <c r="O10">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="P10">
-        <v>0.02619353588033075</v>
+        <v>0.0185727692731934</v>
       </c>
       <c r="Q10">
-        <v>152.6276592036551</v>
+        <v>196.444922494444</v>
       </c>
       <c r="R10">
-        <v>152.6276592036551</v>
+        <v>1768.004302449996</v>
       </c>
       <c r="S10">
-        <v>0.001317199900977276</v>
+        <v>0.001120164069285146</v>
       </c>
       <c r="T10">
-        <v>0.001317199900977276</v>
+        <v>0.001120164069285146</v>
       </c>
     </row>
   </sheetData>
